--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t xml:space="preserve">Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -165,18 +165,15 @@
     <t xml:space="preserve">Implantation du lecteur de carte SD</t>
   </si>
   <si>
-    <t xml:space="preserve">Aaron/Hugo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adaptation du code</t>
   </si>
   <si>
+    <t xml:space="preserve">Récupération des mesures</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hugo</t>
   </si>
   <si>
-    <t xml:space="preserve">Récupération des mesures</t>
-  </si>
-  <si>
     <t xml:space="preserve">Création des graphes</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t xml:space="preserve">html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo/Ewann</t>
   </si>
   <si>
     <t xml:space="preserve">css</t>
@@ -259,7 +259,7 @@
     <numFmt numFmtId="170" formatCode="General"/>
     <numFmt numFmtId="171" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -373,12 +373,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -676,7 +670,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -733,7 +727,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -825,10 +819,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -857,7 +847,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,10 +859,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -897,7 +883,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,7 +899,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -921,7 +907,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -929,35 +915,35 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1024,7 +1010,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFC00000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1094,9 +1080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1904760</xdr:colOff>
+      <xdr:colOff>1904040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1112,7 +1098,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="95400"/>
-          <a:ext cx="1904760" cy="428400"/>
+          <a:ext cx="1904040" cy="427680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1137,7 +1123,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="30" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1149,7 +1135,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="0" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="69" style="0" width="10.26"/>
   </cols>
@@ -1191,8 +1177,7 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="n">
-        <f aca="true">TODAY()</f>
-        <v>45582</v>
+        <v>45202</v>
       </c>
       <c r="F3" s="14"/>
     </row>
@@ -1209,7 +1194,7 @@
       </c>
       <c r="I4" s="16" t="n">
         <f aca="false">I5</f>
-        <v>45579</v>
+        <v>45201</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1219,7 +1204,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16" t="n">
         <f aca="false">P5</f>
-        <v>45586</v>
+        <v>45208</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
@@ -1229,7 +1214,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16" t="n">
         <f aca="false">W5</f>
-        <v>45593</v>
+        <v>45215</v>
       </c>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
@@ -1239,7 +1224,7 @@
       <c r="AC4" s="16"/>
       <c r="AD4" s="16" t="n">
         <f aca="false">AD5</f>
-        <v>45600</v>
+        <v>45222</v>
       </c>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
@@ -1249,7 +1234,7 @@
       <c r="AJ4" s="16"/>
       <c r="AK4" s="16" t="n">
         <f aca="false">AK5</f>
-        <v>45607</v>
+        <v>45229</v>
       </c>
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
@@ -1259,7 +1244,7 @@
       <c r="AQ4" s="16"/>
       <c r="AR4" s="16" t="n">
         <f aca="false">AR5</f>
-        <v>45614</v>
+        <v>45236</v>
       </c>
       <c r="AS4" s="16"/>
       <c r="AT4" s="16"/>
@@ -1269,7 +1254,7 @@
       <c r="AX4" s="16"/>
       <c r="AY4" s="16" t="n">
         <f aca="false">AY5</f>
-        <v>45621</v>
+        <v>45243</v>
       </c>
       <c r="AZ4" s="16"/>
       <c r="BA4" s="16"/>
@@ -1279,7 +1264,7 @@
       <c r="BE4" s="16"/>
       <c r="BF4" s="16" t="n">
         <f aca="false">BF5</f>
-        <v>45628</v>
+        <v>45250</v>
       </c>
       <c r="BG4" s="16"/>
       <c r="BH4" s="16"/>
@@ -1300,227 +1285,227 @@
       <c r="G5" s="17"/>
       <c r="I5" s="18" t="n">
         <f aca="false">Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>45579</v>
+        <v>45201</v>
       </c>
       <c r="J5" s="19" t="n">
         <f aca="false">I5+1</f>
-        <v>45580</v>
+        <v>45202</v>
       </c>
       <c r="K5" s="19" t="n">
         <f aca="false">J5+1</f>
-        <v>45581</v>
+        <v>45203</v>
       </c>
       <c r="L5" s="19" t="n">
         <f aca="false">K5+1</f>
-        <v>45582</v>
+        <v>45204</v>
       </c>
       <c r="M5" s="19" t="n">
         <f aca="false">L5+1</f>
-        <v>45583</v>
+        <v>45205</v>
       </c>
       <c r="N5" s="19" t="n">
         <f aca="false">M5+1</f>
-        <v>45584</v>
+        <v>45206</v>
       </c>
       <c r="O5" s="20" t="n">
         <f aca="false">N5+1</f>
-        <v>45585</v>
+        <v>45207</v>
       </c>
       <c r="P5" s="18" t="n">
         <f aca="false">O5+1</f>
-        <v>45586</v>
+        <v>45208</v>
       </c>
       <c r="Q5" s="19" t="n">
         <f aca="false">P5+1</f>
-        <v>45587</v>
+        <v>45209</v>
       </c>
       <c r="R5" s="19" t="n">
         <f aca="false">Q5+1</f>
-        <v>45588</v>
+        <v>45210</v>
       </c>
       <c r="S5" s="19" t="n">
         <f aca="false">R5+1</f>
-        <v>45589</v>
+        <v>45211</v>
       </c>
       <c r="T5" s="19" t="n">
         <f aca="false">S5+1</f>
-        <v>45590</v>
+        <v>45212</v>
       </c>
       <c r="U5" s="19" t="n">
         <f aca="false">T5+1</f>
-        <v>45591</v>
+        <v>45213</v>
       </c>
       <c r="V5" s="20" t="n">
         <f aca="false">U5+1</f>
-        <v>45592</v>
+        <v>45214</v>
       </c>
       <c r="W5" s="18" t="n">
         <f aca="false">V5+1</f>
-        <v>45593</v>
+        <v>45215</v>
       </c>
       <c r="X5" s="19" t="n">
         <f aca="false">W5+1</f>
-        <v>45594</v>
+        <v>45216</v>
       </c>
       <c r="Y5" s="19" t="n">
         <f aca="false">X5+1</f>
-        <v>45595</v>
+        <v>45217</v>
       </c>
       <c r="Z5" s="19" t="n">
         <f aca="false">Y5+1</f>
-        <v>45596</v>
+        <v>45218</v>
       </c>
       <c r="AA5" s="19" t="n">
         <f aca="false">Z5+1</f>
-        <v>45597</v>
+        <v>45219</v>
       </c>
       <c r="AB5" s="19" t="n">
         <f aca="false">AA5+1</f>
-        <v>45598</v>
+        <v>45220</v>
       </c>
       <c r="AC5" s="20" t="n">
         <f aca="false">AB5+1</f>
-        <v>45599</v>
+        <v>45221</v>
       </c>
       <c r="AD5" s="18" t="n">
         <f aca="false">AC5+1</f>
-        <v>45600</v>
+        <v>45222</v>
       </c>
       <c r="AE5" s="19" t="n">
         <f aca="false">AD5+1</f>
-        <v>45601</v>
+        <v>45223</v>
       </c>
       <c r="AF5" s="19" t="n">
         <f aca="false">AE5+1</f>
-        <v>45602</v>
+        <v>45224</v>
       </c>
       <c r="AG5" s="19" t="n">
         <f aca="false">AF5+1</f>
-        <v>45603</v>
+        <v>45225</v>
       </c>
       <c r="AH5" s="19" t="n">
         <f aca="false">AG5+1</f>
-        <v>45604</v>
+        <v>45226</v>
       </c>
       <c r="AI5" s="19" t="n">
         <f aca="false">AH5+1</f>
-        <v>45605</v>
+        <v>45227</v>
       </c>
       <c r="AJ5" s="20" t="n">
         <f aca="false">AI5+1</f>
-        <v>45606</v>
+        <v>45228</v>
       </c>
       <c r="AK5" s="18" t="n">
         <f aca="false">AJ5+1</f>
-        <v>45607</v>
+        <v>45229</v>
       </c>
       <c r="AL5" s="19" t="n">
         <f aca="false">AK5+1</f>
-        <v>45608</v>
+        <v>45230</v>
       </c>
       <c r="AM5" s="19" t="n">
         <f aca="false">AL5+1</f>
-        <v>45609</v>
+        <v>45231</v>
       </c>
       <c r="AN5" s="19" t="n">
         <f aca="false">AM5+1</f>
-        <v>45610</v>
+        <v>45232</v>
       </c>
       <c r="AO5" s="19" t="n">
         <f aca="false">AN5+1</f>
-        <v>45611</v>
+        <v>45233</v>
       </c>
       <c r="AP5" s="19" t="n">
         <f aca="false">AO5+1</f>
-        <v>45612</v>
+        <v>45234</v>
       </c>
       <c r="AQ5" s="20" t="n">
         <f aca="false">AP5+1</f>
-        <v>45613</v>
+        <v>45235</v>
       </c>
       <c r="AR5" s="18" t="n">
         <f aca="false">AQ5+1</f>
-        <v>45614</v>
+        <v>45236</v>
       </c>
       <c r="AS5" s="19" t="n">
         <f aca="false">AR5+1</f>
-        <v>45615</v>
+        <v>45237</v>
       </c>
       <c r="AT5" s="19" t="n">
         <f aca="false">AS5+1</f>
-        <v>45616</v>
+        <v>45238</v>
       </c>
       <c r="AU5" s="19" t="n">
         <f aca="false">AT5+1</f>
-        <v>45617</v>
+        <v>45239</v>
       </c>
       <c r="AV5" s="19" t="n">
         <f aca="false">AU5+1</f>
-        <v>45618</v>
+        <v>45240</v>
       </c>
       <c r="AW5" s="19" t="n">
         <f aca="false">AV5+1</f>
-        <v>45619</v>
+        <v>45241</v>
       </c>
       <c r="AX5" s="20" t="n">
         <f aca="false">AW5+1</f>
-        <v>45620</v>
+        <v>45242</v>
       </c>
       <c r="AY5" s="18" t="n">
         <f aca="false">AX5+1</f>
-        <v>45621</v>
+        <v>45243</v>
       </c>
       <c r="AZ5" s="19" t="n">
         <f aca="false">AY5+1</f>
-        <v>45622</v>
+        <v>45244</v>
       </c>
       <c r="BA5" s="19" t="n">
         <f aca="false">AZ5+1</f>
-        <v>45623</v>
+        <v>45245</v>
       </c>
       <c r="BB5" s="19" t="n">
         <f aca="false">BA5+1</f>
-        <v>45624</v>
+        <v>45246</v>
       </c>
       <c r="BC5" s="19" t="n">
         <f aca="false">BB5+1</f>
-        <v>45625</v>
+        <v>45247</v>
       </c>
       <c r="BD5" s="19" t="n">
         <f aca="false">BC5+1</f>
-        <v>45626</v>
+        <v>45248</v>
       </c>
       <c r="BE5" s="20" t="n">
         <f aca="false">BD5+1</f>
-        <v>45627</v>
+        <v>45249</v>
       </c>
       <c r="BF5" s="18" t="n">
         <f aca="false">BE5+1</f>
-        <v>45628</v>
+        <v>45250</v>
       </c>
       <c r="BG5" s="19" t="n">
         <f aca="false">BF5+1</f>
-        <v>45629</v>
+        <v>45251</v>
       </c>
       <c r="BH5" s="19" t="n">
         <f aca="false">BG5+1</f>
-        <v>45630</v>
+        <v>45252</v>
       </c>
       <c r="BI5" s="19" t="n">
         <f aca="false">BH5+1</f>
-        <v>45631</v>
+        <v>45253</v>
       </c>
       <c r="BJ5" s="19" t="n">
         <f aca="false">BI5+1</f>
-        <v>45632</v>
+        <v>45254</v>
       </c>
       <c r="BK5" s="19" t="n">
         <f aca="false">BJ5+1</f>
-        <v>45633</v>
+        <v>45255</v>
       </c>
       <c r="BL5" s="20" t="n">
         <f aca="false">BK5+1</f>
-        <v>45634</v>
+        <v>45256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1548,15 +1533,15 @@
       </c>
       <c r="I6" s="23" t="str">
         <f aca="false">LEFT(TEXT(I5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="J6" s="23" t="str">
         <f aca="false">LEFT(TEXT(J5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="K6" s="23" t="str">
         <f aca="false">LEFT(TEXT(K5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="L6" s="23" t="str">
         <f aca="false">LEFT(TEXT(L5,"jjj"),1)</f>
@@ -1564,27 +1549,27 @@
       </c>
       <c r="M6" s="23" t="str">
         <f aca="false">LEFT(TEXT(M5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="N6" s="23" t="str">
         <f aca="false">LEFT(TEXT(N5,"jjj"),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="O6" s="23" t="str">
         <f aca="false">LEFT(TEXT(O5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="P6" s="23" t="str">
         <f aca="false">LEFT(TEXT(P5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="Q6" s="23" t="str">
         <f aca="false">LEFT(TEXT(Q5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="R6" s="23" t="str">
         <f aca="false">LEFT(TEXT(R5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="S6" s="23" t="str">
         <f aca="false">LEFT(TEXT(S5,"jjj"),1)</f>
@@ -1592,27 +1577,27 @@
       </c>
       <c r="T6" s="23" t="str">
         <f aca="false">LEFT(TEXT(T5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="U6" s="23" t="str">
         <f aca="false">LEFT(TEXT(U5,"jjj"),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="V6" s="23" t="str">
         <f aca="false">LEFT(TEXT(V5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="W6" s="23" t="str">
         <f aca="false">LEFT(TEXT(W5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="X6" s="23" t="str">
         <f aca="false">LEFT(TEXT(X5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="Y6" s="23" t="str">
         <f aca="false">LEFT(TEXT(Y5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="Z6" s="23" t="str">
         <f aca="false">LEFT(TEXT(Z5,"jjj"),1)</f>
@@ -1620,27 +1605,27 @@
       </c>
       <c r="AA6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AA5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AB6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AB5,"jjj"),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AC6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AC5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AD6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AD5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AE6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AE5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AF6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AF5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AG6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AG5,"jjj"),1)</f>
@@ -1648,27 +1633,27 @@
       </c>
       <c r="AH6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AH5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AI6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AI5,"jjj"),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AJ6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AJ5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AK6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AK5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AL6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AL5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AM6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AM5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AN6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AN5,"jjj"),1)</f>
@@ -1676,27 +1661,27 @@
       </c>
       <c r="AO6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AO5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AP6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AP5,"jjj"),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AQ6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AQ5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AR6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AR5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AS6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AS5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AT6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AT5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AU6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AU5,"jjj"),1)</f>
@@ -1704,27 +1689,27 @@
       </c>
       <c r="AV6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AV5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AW6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AW5,"jjj"),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AX6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AX5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AY6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AY5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AZ6" s="23" t="str">
         <f aca="false">LEFT(TEXT(AZ5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BA6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BA5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BB6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BB5,"jjj"),1)</f>
@@ -1732,27 +1717,27 @@
       </c>
       <c r="BC6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BC5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BD6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BD5,"jjj"),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="BE6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BE5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BF6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BF5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BG6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BG5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BH6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BH5,"jjj"),1)</f>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BI6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BI5,"jjj"),1)</f>
@@ -1760,15 +1745,15 @@
       </c>
       <c r="BJ6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BJ5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BK6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BK5,"jjj"),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="BL6" s="23" t="str">
         <f aca="false">LEFT(TEXT(BL5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,11 +1909,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="36" t="n">
-        <v>45204</v>
+        <v>45202</v>
       </c>
       <c r="F9" s="36" t="n">
-        <f aca="false">E9</f>
-        <v>45204</v>
+        <v>45202</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="31" t="n">
@@ -1999,18 +1983,17 @@
       <c r="B10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="35" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="36" t="n">
-        <v>45204</v>
+        <v>45202</v>
       </c>
       <c r="F10" s="36" t="n">
-        <f aca="false">E10</f>
-        <v>45204</v>
+        <v>45202</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31" t="n">
@@ -2029,8 +2012,8 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
@@ -2079,19 +2062,17 @@
       <c r="B11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="35" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="36" t="n">
-        <f aca="false">F10</f>
-        <v>45204</v>
+        <v>45202</v>
       </c>
       <c r="F11" s="36" t="n">
-        <f aca="false">E11</f>
-        <v>45204</v>
+        <v>45202</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="31" t="n">
@@ -2160,24 +2141,22 @@
       <c r="B12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="35" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="36" t="n">
-        <f aca="false">F11</f>
-        <v>45204</v>
+        <v>45202</v>
       </c>
       <c r="F12" s="36" t="n">
-        <f aca="false">E12+7</f>
-        <v>45211</v>
+        <v>45216</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31" t="n">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -2195,7 +2174,7 @@
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
-      <c r="Y12" s="38"/>
+      <c r="Y12" s="37"/>
       <c r="Z12" s="25"/>
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
@@ -2241,19 +2220,17 @@
       <c r="B13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="35" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="36" t="n">
-        <f aca="false">E12</f>
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="F13" s="36" t="n">
-        <f aca="false">E12+7</f>
-        <v>45211</v>
+        <v>45216</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
@@ -2273,7 +2250,7 @@
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
-      <c r="Y13" s="38"/>
+      <c r="Y13" s="37"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
@@ -2319,22 +2296,22 @@
       <c r="B14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="36" t="n">
-        <f aca="false">E10+7</f>
-        <v>45211</v>
+        <v>45216</v>
       </c>
       <c r="F14" s="36" t="n">
-        <f aca="false">E14+7</f>
-        <v>45218</v>
+        <v>45216</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="31" t="n">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -2397,13 +2374,13 @@
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31" t="str">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
@@ -2468,27 +2445,25 @@
     </row>
     <row r="16" s="32" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="46" t="n">
+      <c r="C16" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="47" t="n">
-        <f aca="false">E14</f>
-        <v>45211</v>
-      </c>
-      <c r="F16" s="47" t="n">
-        <f aca="false">E16+7</f>
-        <v>45218</v>
+      <c r="E16" s="46" t="n">
+        <v>45209</v>
+      </c>
+      <c r="F16" s="46" t="n">
+        <v>45209</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31" t="n">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -2549,22 +2524,20 @@
     </row>
     <row r="17" s="32" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="46" t="n">
+      <c r="B17" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="47" t="n">
-        <f aca="false">E16</f>
-        <v>45211</v>
-      </c>
-      <c r="F17" s="47" t="n">
-        <f aca="false">E17+7</f>
-        <v>45218</v>
+      <c r="E17" s="46" t="n">
+        <v>45209</v>
+      </c>
+      <c r="F17" s="46" t="n">
+        <v>45216</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31" t="n">
@@ -2583,8 +2556,8 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
@@ -2630,27 +2603,25 @@
     </row>
     <row r="18" s="32" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
-      <c r="B18" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="47" t="n">
-        <f aca="false">E16</f>
-        <v>45211</v>
-      </c>
-      <c r="F18" s="47" t="n">
-        <f aca="false">E18+7</f>
-        <v>45218</v>
+      <c r="D18" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="46" t="n">
+        <v>45216</v>
+      </c>
+      <c r="F18" s="46" t="n">
+        <v>45216</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31" t="n">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -2711,27 +2682,25 @@
     </row>
     <row r="19" s="32" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
-      <c r="B19" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="47" t="n">
-        <f aca="false">E18</f>
-        <v>45211</v>
-      </c>
-      <c r="F19" s="47" t="n">
-        <f aca="false">E19+7</f>
-        <v>45218</v>
+      <c r="B19" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="46" t="n">
+        <v>45216</v>
+      </c>
+      <c r="F19" s="46" t="n">
+        <v>45216</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="31" t="n">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -2749,7 +2718,7 @@
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="38"/>
+      <c r="Y19" s="37"/>
       <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
@@ -2792,15 +2761,15 @@
     </row>
     <row r="20" s="32" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31" t="str">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
@@ -2865,25 +2834,25 @@
     </row>
     <row r="21" s="32" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="57" t="n">
-        <f aca="false">E19</f>
-        <v>45211</v>
-      </c>
-      <c r="F21" s="57" t="n">
-        <f aca="false">E21+21</f>
-        <v>45232</v>
+      <c r="D21" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="55" t="n">
+        <v>45202</v>
+      </c>
+      <c r="F21" s="55" t="n">
+        <v>45216</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="31" t="n">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
@@ -2944,25 +2913,25 @@
     </row>
     <row r="22" s="32" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="57" t="n">
-        <f aca="false">E19</f>
-        <v>45211</v>
-      </c>
-      <c r="F22" s="57" t="n">
-        <f aca="false">E22+21</f>
-        <v>45232</v>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="55" t="n">
+        <v>45202</v>
+      </c>
+      <c r="F22" s="55" t="n">
+        <v>45216</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="31" t="n">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
@@ -3023,25 +2992,25 @@
     </row>
     <row r="23" s="32" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="57" t="n">
-        <f aca="false">E19</f>
-        <v>45211</v>
-      </c>
-      <c r="F23" s="57" t="n">
-        <f aca="false">E23+21</f>
-        <v>45232</v>
+      <c r="C23" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="55" t="n">
+        <v>45202</v>
+      </c>
+      <c r="F23" s="55" t="n">
+        <v>45216</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="31" t="n">
         <f aca="false">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -3101,14 +3070,14 @@
       <c r="BL23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G24" s="58"/>
+      <c r="G24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="59"/>
-      <c r="F25" s="60"/>
+      <c r="C25" s="57"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="61"/>
+      <c r="C26" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3133,7 +3102,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA6F1D2E-EC75-4FD9-914B-CFA0F23099A7}</x14:id>
+          <x14:id>{194391B4-2639-4D73-843A-141251C6209D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3173,7 +3142,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA6F1D2E-EC75-4FD9-914B-CFA0F23099A7}">
+          <x14:cfRule type="dataBar" id="{194391B4-2639-4D73-843A-141251C6209D}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3204,87 +3173,87 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="62" width="90.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="60" width="90.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="6" width="9.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="64" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
+    <row r="2" s="62" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="63"/>
-    </row>
-    <row r="3" s="67" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
+      <c r="B2" s="61"/>
+    </row>
+    <row r="3" s="65" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="66"/>
-    </row>
-    <row r="4" s="69" customFormat="true" ht="25.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="64"/>
+    </row>
+    <row r="4" s="67" customFormat="true" ht="25.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="66" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="74.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" s="62" customFormat="true" ht="205" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="s">
+    <row r="7" s="60" customFormat="true" ht="205" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="69" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" s="69" customFormat="true" ht="25.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="s">
+    <row r="8" s="67" customFormat="true" ht="25.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="66" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="62" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="72" t="s">
+    <row r="10" s="60" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="70" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" s="69" customFormat="true" ht="25.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68" t="s">
+    <row r="11" s="67" customFormat="true" ht="25.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="66" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" s="62" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="s">
+    <row r="13" s="60" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="70" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" s="69" customFormat="true" ht="25.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68" t="s">
+    <row r="14" s="67" customFormat="true" ht="25.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="66" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="68" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="68" t="s">
         <v>57</v>
       </c>
     </row>
